--- a/projets/xls/tableau_synthèse_Nathan_Toupin.xlsx
+++ b/projets/xls/tableau_synthèse_Nathan_Toupin.xlsx
@@ -75,7 +75,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">ESNA de Bretagne</t>
+      <t xml:space="preserve">CFAI – DIAFOR</t>
     </r>
   </si>
   <si>
@@ -322,7 +322,7 @@
     <font>
       <b val="true"/>
       <sz val="18"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1006,8 +1006,8 @@
   </sheetPr>
   <dimension ref="A1:AQ56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J32" activeCellId="0" sqref="J32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L6" activeCellId="0" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/projets/xls/tableau_synthèse_Nathan_Toupin.xlsx
+++ b/projets/xls/tableau_synthèse_Nathan_Toupin.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">'Tableau de synthèse Épreuve E4'!$A$1:$H$43</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">'Tableau de synthèse Épreuve E4'!$A$1:$H$19</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
   <si>
     <t xml:space="preserve">BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
@@ -55,7 +55,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">N° candidat : </t>
+    <t xml:space="preserve">N° candidat : 02112101093</t>
   </si>
   <si>
     <r>
@@ -151,68 +151,43 @@
 ▸Développer son projet professionnel</t>
   </si>
   <si>
-    <t xml:space="preserve">Réalisation en cours de formation
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activité 1 : Installation et configuration d'un serveur LAMP</t>
+    <t xml:space="preserve">Réalisation en cours de formation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mise en place d’un LAMP et d’un GLPI pour le projet ThonMayo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Du au</t>
   </si>
   <si>
     <t xml:space="preserve">X</t>
   </si>
   <si>
-    <t xml:space="preserve">Activité 2 : Installation et Configuration de GLPI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activité 3 : Gestion des habilitaions dans GLPI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mise en place d’une architecture réseau sur 
-Cyber Range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activité 5 : Mise en place de l’AD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activités 6 et 7 : Mise en place d'un lecteur 
-Réseau en mode Workgroup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activité 8 : Conception d'une infrastructure 
-Réseau avec AD DS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activité 9 : Gestion des utilisateurs AD par 
-Stratégie GPO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activité 10 : Configuration LDAP/AD/GLPI </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activité 11 : installation et configuration de 
-Nexcloud </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activité 12 : Gestions des pannes, des 
-Inventaires avec GLPI/FUSION INENTORY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mise en place d'active directory avec GPO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mise en place d’un repo GitHub pour le groupe de Projet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mise en place d’un Site Web</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mise en place d’un pôle de Maintient en Conditions Opérationnelles (MCO)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utilistation de Fusion Inventory dans GLPI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROJET THONMAYO : Identification et recensement des ressources numeriques de  l'entreprise THONMAYO</t>
+    <t xml:space="preserve">Mise en place d’un AD sur windows server pour le projet ThonMayo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mise en place d’un repo GitHub pour le groupe de Projet ThonMayo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le 05/02/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mise en place d’un Site Web Pour le projet ThonMayo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Du 05/02/2024 au 01/06/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Création d’un profil LinkedIn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le 05/09/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Création d’un Portfolio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Du 14/11/2023 au 12/04/2024</t>
   </si>
   <si>
     <t xml:space="preserve">Réalisations en milieu professionnel en cours de première année</t>
@@ -239,6 +214,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Du 05/09/2022 au 31/08/2024</t>
+  </si>
+  <si>
     <t xml:space="preserve">Réalisations en milieu professionnel en cours de seconde année</t>
   </si>
   <si>
@@ -262,16 +240,20 @@
       <t xml:space="preserve">Application de suivis et de demandes d’achats pour la Marine Nationale</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">Du 18/09/2023 au 31/08/2024</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* \-??\ [$€-1]_-"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -322,7 +304,7 @@
     <font>
       <b val="true"/>
       <sz val="18"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF111111"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -363,15 +345,9 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="16"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -381,33 +357,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="18"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b val="true"/>
-      <sz val="15"/>
+      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -427,7 +384,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -436,277 +393,20 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="medium">
-        <color rgb="FF4A452A"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF4A452A"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF4A452A"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF4A452A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF4A452A"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF4A452A"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF4A452A"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF4A452A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium">
-        <color rgb="FF4A452A"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF4A452A"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF4A452A"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF4A452A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF4A452A"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF4A452A"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF4A452A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF4A452A"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF4A452A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="medium">
-        <color rgb="FF4A452A"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF4A452A"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF4A452A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium">
-        <color rgb="FF4A452A"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF4A452A"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF4A452A"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF4A452A"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="true">
-      <left style="medium">
-        <color rgb="FF4A452A"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF4A452A"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF4A452A"/>
-      </top>
-      <bottom/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal style="thin">
         <color rgb="FF4A452A"/>
       </diagonal>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF4A452A"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF4A452A"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF4A452A"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF4A452A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF4A452A"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF4A452A"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF4A452A"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF4A452A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF4A452A"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF4A452A"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF4A452A"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF4A452A"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF4A452A"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF4A452A"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium">
-        <color rgb="FF4A452A"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF4A452A"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF4A452A"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF4A452A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF4A452A"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF4A452A"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF4A452A"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF4A452A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF4A452A"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF4A452A"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF4A452A"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF4A452A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium">
-        <color rgb="FF4A452A"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF4A452A"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF4A452A"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF4A452A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium">
-        <color rgb="FF4A452A"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF4A452A"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF4A452A"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF4A452A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF4A452A"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF4A452A"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF4A452A"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF4A452A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF4A452A"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF4A452A"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF4A452A"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF4A452A"/>
-      </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="21">
@@ -737,7 +437,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -758,51 +458,39 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -810,107 +498,39 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -922,7 +542,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -988,7 +608,7 @@
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF111111"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
@@ -1004,16 +624,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:AQ56"/>
+  <dimension ref="A1:AQ57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L6" activeCellId="0" sqref="L6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V4" activeCellId="0" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="70.44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="18.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="9" style="2" width="11.44"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="44" style="1" width="10.88"/>
@@ -1053,508 +673,1131 @@
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="N5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="90" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" s="17" customFormat="true" ht="324.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="15" t="s">
+    <row r="7" s="14" customFormat="true" ht="324.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" s="17" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="18" t="s">
+    <row r="8" s="14" customFormat="true" ht="32.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-    </row>
-    <row r="9" s="17" customFormat="true" ht="55.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="19" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" s="14" customFormat="true" ht="55.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="20" t="s">
+      <c r="B9" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-    </row>
-    <row r="10" s="17" customFormat="true" ht="55.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="21" t="s">
+      <c r="C9" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="22" t="s">
+      <c r="D9" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="19"/>
+    </row>
+    <row r="10" s="14" customFormat="true" ht="55.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-    </row>
-    <row r="11" s="17" customFormat="true" ht="56.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
+      <c r="C10" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+    </row>
+    <row r="11" s="14" customFormat="true" ht="57.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>27</v>
+      </c>
       <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-    </row>
-    <row r="12" s="17" customFormat="true" ht="44.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="26"/>
-      <c r="H12" s="27"/>
-    </row>
-    <row r="13" s="17" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="27"/>
-    </row>
-    <row r="14" s="17" customFormat="true" ht="59" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="29" t="s">
+      <c r="H11" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" s="14" customFormat="true" ht="61.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="27"/>
-    </row>
-    <row r="15" s="17" customFormat="true" ht="61.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="29" t="s">
+      <c r="B12" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="27"/>
-    </row>
-    <row r="16" s="17" customFormat="true" ht="55.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="29" t="s">
+      <c r="C12" s="21"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="21"/>
+      <c r="H12" s="18"/>
+    </row>
+    <row r="13" s="14" customFormat="true" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="27"/>
-    </row>
-    <row r="17" s="17" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="30" t="s">
+      <c r="B13" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="27"/>
-    </row>
-    <row r="18" s="17" customFormat="true" ht="53" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="32" t="s">
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" s="14" customFormat="true" ht="49.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="27"/>
-    </row>
-    <row r="19" s="17" customFormat="true" ht="54.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="32" t="s">
+      <c r="B14" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="31" t="s">
-        <v>26</v>
-      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="18"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" s="14" customFormat="true" ht="36.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+    </row>
+    <row r="16" s="14" customFormat="true" ht="75.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="21"/>
+    </row>
+    <row r="17" s="14" customFormat="true" ht="38.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="2"/>
+      <c r="AH17" s="2"/>
+      <c r="AI17" s="2"/>
+      <c r="AJ17" s="2"/>
+      <c r="AK17" s="2"/>
+      <c r="AL17" s="2"/>
+      <c r="AM17" s="2"/>
+      <c r="AN17" s="2"/>
+      <c r="AO17" s="2"/>
+      <c r="AP17" s="2"/>
+      <c r="AQ17" s="2"/>
+    </row>
+    <row r="18" s="14" customFormat="true" ht="64.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="21"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="2"/>
+      <c r="AI18" s="2"/>
+      <c r="AJ18" s="2"/>
+      <c r="AK18" s="2"/>
+      <c r="AL18" s="2"/>
+      <c r="AM18" s="2"/>
+      <c r="AN18" s="2"/>
+      <c r="AO18" s="2"/>
+      <c r="AP18" s="2"/>
+      <c r="AQ18" s="2"/>
+    </row>
+    <row r="19" s="14" customFormat="true" ht="89.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="24"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
       <c r="E19" s="26"/>
-      <c r="F19" s="25"/>
+      <c r="F19" s="26"/>
       <c r="G19" s="26"/>
-      <c r="H19" s="27"/>
-    </row>
-    <row r="20" s="17" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="26"/>
-      <c r="H20" s="27"/>
-    </row>
-    <row r="21" s="17" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="26"/>
-      <c r="H21" s="25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" s="17" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="26"/>
-      <c r="H22" s="25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" s="17" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="H23" s="25"/>
-    </row>
-    <row r="24" s="17" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="27"/>
-    </row>
-    <row r="25" s="17" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="34"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="27"/>
-    </row>
-    <row r="26" s="17" customFormat="true" ht="87.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="F26" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="H26" s="36" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" s="17" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="34"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="27"/>
-    </row>
-    <row r="28" s="17" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-    </row>
-    <row r="29" s="17" customFormat="true" ht="83.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="F29" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G29" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="H29" s="27"/>
-    </row>
-    <row r="30" s="17" customFormat="true" ht="68.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="34"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="27"/>
-    </row>
-    <row r="31" s="17" customFormat="true" ht="74.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="34"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="27"/>
-    </row>
-    <row r="32" s="17" customFormat="true" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="34"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="27"/>
-    </row>
-    <row r="33" s="17" customFormat="true" ht="73.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="34"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="27"/>
-    </row>
-    <row r="34" s="17" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="34"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="27"/>
-    </row>
-    <row r="35" s="17" customFormat="true" ht="36.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37"/>
-    </row>
-    <row r="36" s="17" customFormat="true" ht="53" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36" s="24"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="E36" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="F36" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G36" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="H36" s="27"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="2"/>
+      <c r="AK19" s="2"/>
+      <c r="AL19" s="2"/>
+      <c r="AM19" s="2"/>
+      <c r="AN19" s="2"/>
+      <c r="AO19" s="2"/>
+      <c r="AP19" s="2"/>
+      <c r="AQ19" s="2"/>
+    </row>
+    <row r="20" s="14" customFormat="true" ht="54.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="2"/>
+      <c r="AK20" s="2"/>
+      <c r="AL20" s="2"/>
+      <c r="AM20" s="2"/>
+      <c r="AN20" s="2"/>
+      <c r="AO20" s="2"/>
+      <c r="AP20" s="2"/>
+      <c r="AQ20" s="2"/>
+    </row>
+    <row r="21" s="14" customFormat="true" ht="56.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="2"/>
+      <c r="AK21" s="2"/>
+      <c r="AL21" s="2"/>
+      <c r="AM21" s="2"/>
+      <c r="AN21" s="2"/>
+      <c r="AO21" s="2"/>
+      <c r="AP21" s="2"/>
+      <c r="AQ21" s="2"/>
+    </row>
+    <row r="22" s="14" customFormat="true" ht="43.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="2"/>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="2"/>
+      <c r="AL22" s="2"/>
+      <c r="AM22" s="2"/>
+      <c r="AN22" s="2"/>
+      <c r="AO22" s="2"/>
+      <c r="AP22" s="2"/>
+      <c r="AQ22" s="2"/>
+    </row>
+    <row r="23" s="14" customFormat="true" ht="43.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="2"/>
+      <c r="AI23" s="2"/>
+      <c r="AJ23" s="2"/>
+      <c r="AK23" s="2"/>
+      <c r="AL23" s="2"/>
+      <c r="AM23" s="2"/>
+      <c r="AN23" s="2"/>
+      <c r="AO23" s="2"/>
+      <c r="AP23" s="2"/>
+      <c r="AQ23" s="2"/>
+    </row>
+    <row r="24" s="14" customFormat="true" ht="43.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="2"/>
+      <c r="AH24" s="2"/>
+      <c r="AI24" s="2"/>
+      <c r="AJ24" s="2"/>
+      <c r="AK24" s="2"/>
+      <c r="AL24" s="2"/>
+      <c r="AM24" s="2"/>
+      <c r="AN24" s="2"/>
+      <c r="AO24" s="2"/>
+      <c r="AP24" s="2"/>
+      <c r="AQ24" s="2"/>
+    </row>
+    <row r="25" s="14" customFormat="true" ht="43.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="2"/>
+      <c r="AI25" s="2"/>
+      <c r="AJ25" s="2"/>
+      <c r="AK25" s="2"/>
+      <c r="AL25" s="2"/>
+      <c r="AM25" s="2"/>
+      <c r="AN25" s="2"/>
+      <c r="AO25" s="2"/>
+      <c r="AP25" s="2"/>
+      <c r="AQ25" s="2"/>
+    </row>
+    <row r="26" s="14" customFormat="true" ht="43.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="2"/>
+      <c r="AI26" s="2"/>
+      <c r="AJ26" s="2"/>
+      <c r="AK26" s="2"/>
+      <c r="AL26" s="2"/>
+      <c r="AM26" s="2"/>
+      <c r="AN26" s="2"/>
+      <c r="AO26" s="2"/>
+      <c r="AP26" s="2"/>
+      <c r="AQ26" s="2"/>
+    </row>
+    <row r="27" s="14" customFormat="true" ht="43.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="2"/>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="2"/>
+      <c r="AI27" s="2"/>
+      <c r="AJ27" s="2"/>
+      <c r="AK27" s="2"/>
+      <c r="AL27" s="2"/>
+      <c r="AM27" s="2"/>
+      <c r="AN27" s="2"/>
+      <c r="AO27" s="2"/>
+      <c r="AP27" s="2"/>
+      <c r="AQ27" s="2"/>
+    </row>
+    <row r="28" s="14" customFormat="true" ht="43.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="2"/>
+      <c r="AH28" s="2"/>
+      <c r="AI28" s="2"/>
+      <c r="AJ28" s="2"/>
+      <c r="AK28" s="2"/>
+      <c r="AL28" s="2"/>
+      <c r="AM28" s="2"/>
+      <c r="AN28" s="2"/>
+      <c r="AO28" s="2"/>
+      <c r="AP28" s="2"/>
+      <c r="AQ28" s="2"/>
+    </row>
+    <row r="29" s="14" customFormat="true" ht="43.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="2"/>
+      <c r="AC29" s="2"/>
+      <c r="AD29" s="2"/>
+      <c r="AE29" s="2"/>
+      <c r="AF29" s="2"/>
+      <c r="AG29" s="2"/>
+      <c r="AH29" s="2"/>
+      <c r="AI29" s="2"/>
+      <c r="AJ29" s="2"/>
+      <c r="AK29" s="2"/>
+      <c r="AL29" s="2"/>
+      <c r="AM29" s="2"/>
+      <c r="AN29" s="2"/>
+      <c r="AO29" s="2"/>
+      <c r="AP29" s="2"/>
+      <c r="AQ29" s="2"/>
+    </row>
+    <row r="30" s="14" customFormat="true" ht="43.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="2"/>
+      <c r="AD30" s="2"/>
+      <c r="AE30" s="2"/>
+      <c r="AF30" s="2"/>
+      <c r="AG30" s="2"/>
+      <c r="AH30" s="2"/>
+      <c r="AI30" s="2"/>
+      <c r="AJ30" s="2"/>
+      <c r="AK30" s="2"/>
+      <c r="AL30" s="2"/>
+      <c r="AM30" s="2"/>
+      <c r="AN30" s="2"/>
+      <c r="AO30" s="2"/>
+      <c r="AP30" s="2"/>
+      <c r="AQ30" s="2"/>
+    </row>
+    <row r="31" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
+      <c r="AA31" s="2"/>
+      <c r="AB31" s="2"/>
+      <c r="AC31" s="2"/>
+      <c r="AD31" s="2"/>
+      <c r="AE31" s="2"/>
+      <c r="AF31" s="2"/>
+      <c r="AG31" s="2"/>
+      <c r="AH31" s="2"/>
+      <c r="AI31" s="2"/>
+      <c r="AJ31" s="2"/>
+      <c r="AK31" s="2"/>
+      <c r="AL31" s="2"/>
+      <c r="AM31" s="2"/>
+      <c r="AN31" s="2"/>
+      <c r="AO31" s="2"/>
+      <c r="AP31" s="2"/>
+      <c r="AQ31" s="2"/>
+    </row>
+    <row r="32" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2"/>
+      <c r="AA32" s="2"/>
+      <c r="AB32" s="2"/>
+      <c r="AC32" s="2"/>
+      <c r="AD32" s="2"/>
+      <c r="AE32" s="2"/>
+      <c r="AF32" s="2"/>
+      <c r="AG32" s="2"/>
+      <c r="AH32" s="2"/>
+      <c r="AI32" s="2"/>
+      <c r="AJ32" s="2"/>
+      <c r="AK32" s="2"/>
+      <c r="AL32" s="2"/>
+      <c r="AM32" s="2"/>
+      <c r="AN32" s="2"/>
+      <c r="AO32" s="2"/>
+      <c r="AP32" s="2"/>
+      <c r="AQ32" s="2"/>
+    </row>
+    <row r="33" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="2"/>
+      <c r="AA33" s="2"/>
+      <c r="AB33" s="2"/>
+      <c r="AC33" s="2"/>
+      <c r="AD33" s="2"/>
+      <c r="AE33" s="2"/>
+      <c r="AF33" s="2"/>
+      <c r="AG33" s="2"/>
+      <c r="AH33" s="2"/>
+      <c r="AI33" s="2"/>
+      <c r="AJ33" s="2"/>
+      <c r="AK33" s="2"/>
+      <c r="AL33" s="2"/>
+      <c r="AM33" s="2"/>
+      <c r="AN33" s="2"/>
+      <c r="AO33" s="2"/>
+      <c r="AP33" s="2"/>
+      <c r="AQ33" s="2"/>
+    </row>
+    <row r="34" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="2"/>
+      <c r="AA34" s="2"/>
+      <c r="AB34" s="2"/>
+      <c r="AC34" s="2"/>
+      <c r="AD34" s="2"/>
+      <c r="AE34" s="2"/>
+      <c r="AF34" s="2"/>
+      <c r="AG34" s="2"/>
+      <c r="AH34" s="2"/>
+      <c r="AI34" s="2"/>
+      <c r="AJ34" s="2"/>
+      <c r="AK34" s="2"/>
+      <c r="AL34" s="2"/>
+      <c r="AM34" s="2"/>
+      <c r="AN34" s="2"/>
+      <c r="AO34" s="2"/>
+      <c r="AP34" s="2"/>
+      <c r="AQ34" s="2"/>
+    </row>
+    <row r="35" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="2"/>
+      <c r="AA35" s="2"/>
+      <c r="AB35" s="2"/>
+      <c r="AC35" s="2"/>
+      <c r="AD35" s="2"/>
+      <c r="AE35" s="2"/>
+      <c r="AF35" s="2"/>
+      <c r="AG35" s="2"/>
+      <c r="AH35" s="2"/>
+      <c r="AI35" s="2"/>
+      <c r="AJ35" s="2"/>
+      <c r="AK35" s="2"/>
+      <c r="AL35" s="2"/>
+      <c r="AM35" s="2"/>
+      <c r="AN35" s="2"/>
+      <c r="AO35" s="2"/>
+      <c r="AP35" s="2"/>
+      <c r="AQ35" s="2"/>
+    </row>
+    <row r="36" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -1591,15 +1834,15 @@
       <c r="AP36" s="2"/>
       <c r="AQ36" s="2"/>
     </row>
-    <row r="37" s="17" customFormat="true" ht="53" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="34"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="27"/>
+    <row r="37" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
@@ -1636,15 +1879,15 @@
       <c r="AP37" s="2"/>
       <c r="AQ37" s="2"/>
     </row>
-    <row r="38" s="17" customFormat="true" ht="34.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="34"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="27"/>
+    <row r="38" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
@@ -1681,15 +1924,15 @@
       <c r="AP38" s="2"/>
       <c r="AQ38" s="2"/>
     </row>
-    <row r="39" s="17" customFormat="true" ht="34.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="34"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="27"/>
+    <row r="39" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
@@ -1726,15 +1969,15 @@
       <c r="AP39" s="2"/>
       <c r="AQ39" s="2"/>
     </row>
-    <row r="40" s="17" customFormat="true" ht="33.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="34"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="27"/>
+    <row r="40" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
@@ -1771,15 +2014,15 @@
       <c r="AP40" s="2"/>
       <c r="AQ40" s="2"/>
     </row>
-    <row r="41" s="17" customFormat="true" ht="34.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="34"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="27"/>
+    <row r="41" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
@@ -1816,15 +2059,15 @@
       <c r="AP41" s="2"/>
       <c r="AQ41" s="2"/>
     </row>
-    <row r="42" s="17" customFormat="true" ht="32.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="40"/>
-      <c r="B42" s="41"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="43"/>
+    <row r="42" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
@@ -1861,15 +2104,15 @@
       <c r="AP42" s="2"/>
       <c r="AQ42" s="2"/>
     </row>
-    <row r="43" s="17" customFormat="true" ht="32.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="44"/>
-      <c r="B43" s="45"/>
-      <c r="C43" s="46"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="46"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="46"/>
-      <c r="H43" s="46"/>
+    <row r="43" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
@@ -1906,7 +2149,7 @@
       <c r="AP43" s="2"/>
       <c r="AQ43" s="2"/>
     </row>
-    <row r="44" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1951,7 +2194,7 @@
       <c r="AP44" s="2"/>
       <c r="AQ44" s="2"/>
     </row>
-    <row r="45" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1996,7 +2239,7 @@
       <c r="AP45" s="2"/>
       <c r="AQ45" s="2"/>
     </row>
-    <row r="46" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2041,7 +2284,7 @@
       <c r="AP46" s="2"/>
       <c r="AQ46" s="2"/>
     </row>
-    <row r="47" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2086,7 +2329,7 @@
       <c r="AP47" s="2"/>
       <c r="AQ47" s="2"/>
     </row>
-    <row r="48" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2131,7 +2374,7 @@
       <c r="AP48" s="2"/>
       <c r="AQ48" s="2"/>
     </row>
-    <row r="49" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2176,7 +2419,7 @@
       <c r="AP49" s="2"/>
       <c r="AQ49" s="2"/>
     </row>
-    <row r="50" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2221,7 +2464,7 @@
       <c r="AP50" s="2"/>
       <c r="AQ50" s="2"/>
     </row>
-    <row r="51" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2266,7 +2509,7 @@
       <c r="AP51" s="2"/>
       <c r="AQ51" s="2"/>
     </row>
-    <row r="52" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2311,7 +2554,7 @@
       <c r="AP52" s="2"/>
       <c r="AQ52" s="2"/>
     </row>
-    <row r="53" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2356,7 +2599,7 @@
       <c r="AP53" s="2"/>
       <c r="AQ53" s="2"/>
     </row>
-    <row r="54" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2401,7 +2644,7 @@
       <c r="AP54" s="2"/>
       <c r="AQ54" s="2"/>
     </row>
-    <row r="55" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2446,7 +2689,7 @@
       <c r="AP55" s="2"/>
       <c r="AQ55" s="2"/>
     </row>
-    <row r="56" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2491,6 +2734,51 @@
       <c r="AP56" s="2"/>
       <c r="AQ56" s="2"/>
     </row>
+    <row r="57" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+      <c r="T57" s="2"/>
+      <c r="U57" s="2"/>
+      <c r="V57" s="2"/>
+      <c r="W57" s="2"/>
+      <c r="X57" s="2"/>
+      <c r="Y57" s="2"/>
+      <c r="Z57" s="2"/>
+      <c r="AA57" s="2"/>
+      <c r="AB57" s="2"/>
+      <c r="AC57" s="2"/>
+      <c r="AD57" s="2"/>
+      <c r="AE57" s="2"/>
+      <c r="AF57" s="2"/>
+      <c r="AG57" s="2"/>
+      <c r="AH57" s="2"/>
+      <c r="AI57" s="2"/>
+      <c r="AJ57" s="2"/>
+      <c r="AK57" s="2"/>
+      <c r="AL57" s="2"/>
+      <c r="AM57" s="2"/>
+      <c r="AN57" s="2"/>
+      <c r="AO57" s="2"/>
+      <c r="AP57" s="2"/>
+      <c r="AQ57" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="A1:F1"/>
@@ -2503,8 +2791,8 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A17:H17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A5" r:id="rId1" display="Adresse URL du portfolio : https://freyr29.github.io/Portfolio-BTS/"/>
